--- a/pre/offers-116/ru/2/2.xlsx
+++ b/pre/offers-116/ru/2/2.xlsx
@@ -863,7 +863,7 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Не рассчитывала на быстрое похудение, так как склонна к полноте, но то, что я начала терять вес уже с первых дней, меня очень удивило. С помощью Слиматики удалось снизить вес с 85 до 57 кг. Уже через неделю я потеряла 6 кг, далее вес планомерно, но уверенно снижался. Я думаю, что результат 28 кг за 2,5 месяца не может не обрадовать. Кстати я действительно начала себя лучше чувствовать, у меня даже улучшилось состояние волос и кожи.</v>
+        <v>Слиматика действует постепенно, в этом ее преимущество, так как организм не испытывает стресс от быстрого похудения. Попробуйте завершить полный курс, и Вы увидите результат.</v>
       </c>
     </row>
     <row r="98">
@@ -968,7 +968,7 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v xml:space="preserve">Валерия </v>
+        <v>Мария</v>
       </c>
     </row>
     <row r="119">
@@ -1444,7 +1444,7 @@
             &lt;img src alt class="ava"&gt;
           &lt;/div&gt;
           &lt;div class="comment__text"&gt;
-            &lt;span&gt;&lt;span data-translate="80"&gt;Админ &lt;/span&gt;&lt;span class="get-date " data-day-delay="9"&gt;&lt;/span&gt;&lt;/span&gt;
+            &lt;span&gt;&lt;span data-translate="80"&gt;Админ &lt;/span&gt;&lt;span class="get-date " data-day-delay="8"&gt;&lt;/span&gt;&lt;/span&gt;
             &lt;p&gt;&lt;span data-translate="81"&gt;Очень рады, что капли Вам помогли!&lt;/span&gt;&lt;/p&gt;
             &lt;a href class="answer"&gt;&lt;span data-translate="82"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
           &lt;/div&gt;
@@ -1475,7 +1475,7 @@
             &lt;img src alt class="ava"&gt;
           &lt;/div&gt;
           &lt;div class="comment__text"&gt;
-            &lt;span&gt;&lt;span data-translate="88"&gt;Админ &lt;/span&gt;&lt;span class="get-date " data-day-delay="9"&gt;&lt;/span&gt;&lt;/span&gt;
+            &lt;span&gt;&lt;span data-translate="88"&gt;Админ &lt;/span&gt;&lt;span class="get-date " data-day-delay="8"&gt;&lt;/span&gt;&lt;/span&gt;
             &lt;p&gt;&lt;span data-translate="89"&gt;Да, капли Слиматика действительно помогают избавиться от &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="90"&gt;лишнего веса&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="91"&gt;в послеродовом
               периоде&lt;/span&gt;&lt;/p&gt;
             &lt;a href class="answer"&gt;&lt;span data-translate="92"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
@@ -1486,7 +1486,7 @@
             &lt;img src alt class="ava"&gt;
           &lt;/div&gt;
           &lt;div class="comment__text"&gt;
-            &lt;span&gt;&lt;span data-translate="93"&gt;Юлия &lt;/span&gt;&lt;span class="get-date " data-day-delay="9"&gt;&lt;/span&gt;&lt;/span&gt;
+            &lt;span&gt;&lt;span data-translate="93"&gt;Юлия &lt;/span&gt;&lt;span class="get-date " data-day-delay="6"&gt;&lt;/span&gt;&lt;/span&gt;
             &lt;p&gt;&lt;span data-translate="94"&gt;Пила капли несколько дней, вес каким был, таким и остался. Не морочьте людям голову!&lt;/span&gt;&lt;/p&gt;
             &lt;a href class="answer"&gt;&lt;span data-translate="95"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
           &lt;/div&gt;
@@ -1496,27 +1496,24 @@
             &lt;img src alt class="ava"&gt;
           &lt;/div&gt;
           &lt;div class="comment__text"&gt;
-            &lt;span&gt;&lt;span data-translate="96"&gt;Админ &lt;/span&gt;&lt;span class="get-date " data-day-delay="9"&gt;&lt;/span&gt;&lt;/span&gt;
-            &lt;p&gt;&lt;span data-translate="97"&gt;Не рассчитывала на быстрое похудение, так как склонна к полноте, но то, что я начала терять вес уже с
-              первых дней, меня очень удивило. С помощью Слиматики удалось снизить вес с 85 до 57 кг. Уже через неделю
-              я потеряла 6 кг, далее вес планомерно, но уверенно снижался. Я думаю, что результат 28 кг за 2,5 месяца не
-              может не обрадовать. Кстати я действительно начала себя лучше чувствовать, у меня даже улучшилось
-              состояние волос и кожи.&lt;/span&gt;&lt;/p&gt;
+            &lt;span&gt;&lt;span data-translate="96"&gt;Админ &lt;/span&gt;&lt;span class="get-date " data-day-delay="6"&gt;&lt;/span&gt;&lt;/span&gt;
+            &lt;p&gt;&lt;span data-translate="97"&gt;Слиматика действует постепенно, в этом ее преимущество, так как организм не испытывает стресс от быстрого похудения.
+            Попробуйте завершить полный курс, и Вы увидите результат.&lt;/span&gt;&lt;/p&gt;
             &lt;a href class="answer"&gt;&lt;span data-translate="98"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
           &lt;/div&gt;
         &lt;/div&gt;
         &lt;div class="comment right"&gt;
           &lt;div class="comment__ava"&gt;
             &lt;img src alt class="ava"&gt;
-         </v>
+          &lt;/div&gt;
+          &lt;div class="comment__text"&gt;
+            &lt;span&gt;&lt;span data-translate="99"&gt;Ольга &lt;/span&gt;&lt;span class="get-date " data-day-delay="5"&gt;&lt;/span&gt;&lt;/span&gt;
+            &lt;p&gt;&lt;span data-translate="100"&gt;Не рассчитывала на быстрое похудение, так как склонна к полноте, но то, что я начала терять вес уже с</v>
       </c>
     </row>
     <row r="8" xml:space="preserve">
       <c r="A8" t="str" xml:space="preserve">
-        <v xml:space="preserve"> &lt;/div&gt;
-          &lt;div class="comment__text"&gt;
-            &lt;span&gt;&lt;span data-translate="99"&gt;Ольга &lt;/span&gt;&lt;span class="get-date " data-day-delay="9"&gt;&lt;/span&gt;&lt;/span&gt;
-            &lt;p&gt;&lt;span data-translate="100"&gt;Не рассчитывала на быстрое похудение, так как склонна к полноте, но то, что я начала терять вес уже с
+        <v xml:space="preserve">
               первых дней, меня
               очень удивило. С помощью Слиматики удалось снизить вес с 85 до 57 кг. Уже через неделю я потеряла 6 кг,
               далее вес
@@ -1532,7 +1529,7 @@
             &lt;img src alt class="ava"&gt;
           &lt;/div&gt;
           &lt;div class="comment__text"&gt;
-            &lt;span&gt;&lt;span data-translate="104"&gt;Валерия &lt;/span&gt;&lt;span class="get-date " data-day-delay="9"&gt;&lt;/span&gt;&lt;/span&gt;
+            &lt;span&gt;&lt;span data-translate="104"&gt;Валерия &lt;/span&gt;&lt;span class="get-date " data-day-delay="8"&gt;&lt;/span&gt;&lt;/span&gt;
             &lt;p&gt;&lt;span data-translate="105"&gt;Добавляла капли в чай и кофе, пока не заметила положительный результат. Буду надеяться, что скоро увижу
               изменения. О
               результатах отпишусь.&lt;/span&gt;&lt;/p&gt;
@@ -1544,7 +1541,7 @@
             &lt;img src alt class="ava"&gt;
           &lt;/div&gt;
           &lt;div class="comment__text"&gt;
-            &lt;span&gt;&lt;span data-translate="107"&gt;Админ &lt;/span&gt;&lt;span class="get-date" data-day-delay="9"&gt;&lt;/span&gt;&lt;/span&gt;
+            &lt;span&gt;&lt;span data-translate="107"&gt;Админ &lt;/span&gt;&lt;span class="get-date" data-day-delay="7"&gt;&lt;/span&gt;&lt;/span&gt;
             &lt;p&gt;&lt;span data-translate="108"&gt;Слиматику лучше добавлять в обычную питьевую воду без газа или в сок. Горячие напитки могут повлиять на
               эффективность
               капель не в лучшую сторону.&lt;/span&gt;&lt;/p&gt;
@@ -1561,12 +1558,7 @@
               подходит мне по
               размеру. Человек я не спортивный, поэтому Слиматика стала для меня лучшим вариантом. За 4,5 недели вес &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="112"&gt;упал с 90 до 66
                 кг&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="113"&gt;, и это не предел, потому что я продолжаю курс похудения с Слиматикой.&lt;/span&gt;&lt;/p&gt;
-   </v>
-      </c>
-    </row>
-    <row r="9" xml:space="preserve">
-      <c r="A9" t="str" xml:space="preserve">
-        <v xml:space="preserve">         &lt;a href class="answer"&gt;&lt;span data-translate="114"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
+            &lt;a href class="answer"&gt;&lt;span data-translate="114"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
           &lt;/div&gt;
         &lt;/div&gt;
         &lt;div class="comment right"&gt;
@@ -1574,17 +1566,22 @@
             &lt;img src alt class="ava"&gt;
           &lt;/div&gt;
           &lt;div class="comment__text"&gt;
-            &lt;span&gt;&lt;span data-translate="115"&gt;Админ &lt;/span&gt;&lt;span class="get-date " data-day-delay="9"&gt;&lt;/span&gt;&lt;/span&gt;
+            &lt;span&gt;&lt;span da</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str" xml:space="preserve">
+        <v xml:space="preserve">ta-translate="115"&gt;Админ &lt;/span&gt;&lt;span class="get-date " data-day-delay="9"&gt;&lt;/span&gt;&lt;/span&gt;
             &lt;p&gt;&lt;span data-translate="116"&gt;Ваш положительный результат — наш приоритет!&lt;/span&gt;&lt;/p&gt;
             &lt;a href class="answer"&gt;&lt;span data-translate="117"&gt;Ответить&lt;/span&gt;&lt;/a&gt;
           &lt;/div&gt;
         &lt;/div&gt;
-        &lt;div class="comment right"&gt;
+        &lt;div class="comment "&gt;
           &lt;div class="comment__ava"&gt;
             &lt;img src alt class="ava"&gt;
           &lt;/div&gt;
           &lt;div class="comment__text"&gt;
-            &lt;span&gt;&lt;span data-translate="118"&gt;Валерия &lt;/span&gt;&lt;span class="get-date " data-day-delay="9"&gt;&lt;/span&gt;&lt;/span&gt;
+            &lt;span&gt;&lt;span data-translate="118"&gt;Мария&lt;/span&gt;&lt;span class="get-date " data-day-delay="9"&gt;&lt;/span&gt;&lt;/span&gt;
             &lt;p&gt;&lt;span data-translate="119"&gt;У меня был негативный опыт использования таблеток для похудения. Вес особо не снижался, но появились
               дополнительные
               проблемы. Слиматика дала мне тот результат, который я хотела. &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="120"&gt;Минус 17 кг!&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="121"&gt;На получение
@@ -1620,17 +1617,17 @@
           &lt;/div&gt;
           &lt;div class="item__btn"&gt;&lt;span data-translate="131"&gt;Читать&lt;/span&gt;&lt;/div&gt;
         &lt;/a&gt;
-       </v>
-      </c>
-    </row>
-    <row r="10" xml:space="preserve">
-      <c r="A10" t="str" xml:space="preserve">
-        <v xml:space="preserve"> &lt;a href class="item"&gt;
+        &lt;a href class="item"&gt;
           &lt;div class="box"&gt;
             &lt;img src="img/avaBlog2.png" alt&gt;
             &lt;div class="name"&gt;&lt;b&gt;&lt;span data-translate="132"&gt;Эмануэль Си&lt;/span&gt;&lt;/b&gt;&lt;span&gt;&lt;span data-translate="133"&gt;Познаем свое тело&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;
           &lt;/div&gt;
-          &lt;div class="item__btn"&gt;&lt;span data-translate="134"&gt;Читать&lt;/span&gt;&lt;/div&gt;
+          &lt;div class="item__btn"&gt;&lt;span data-tra</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str" xml:space="preserve">
+        <v xml:space="preserve">nslate="134"&gt;Читать&lt;/span&gt;&lt;/div&gt;
         &lt;/a&gt;
         &lt;a href class="item"&gt;
           &lt;div class="box"&gt;
